--- a/bfs-dfs.xlsx
+++ b/bfs-dfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/CLionProjects/Ring-RPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{25BEC844-9399-A64A-811A-B7BFDD165826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BB7B848E-A8A2-C144-935B-76C6C64F2BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15340" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="20">
   <si>
     <t>left</t>
   </si>
@@ -79,12 +79,15 @@
   <si>
     <t>Diff</t>
   </si>
+  <si>
+    <t>MB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +229,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -409,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -685,6 +700,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -733,6 +763,21 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -811,6 +856,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -837,6 +891,149 @@
     <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -892,7 +1089,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,41 +1124,90 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1321,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P773"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354:B395"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31078,15 +31324,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K73"/>
+  <dimension ref="B1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D2" s="31" t="s">
         <v>12</v>
       </c>
@@ -31097,8 +31353,20 @@
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+    </row>
+    <row r="3" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32" t="s">
         <v>16</v>
       </c>
@@ -31117,8 +31385,38 @@
       <c r="I3" s="32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -31153,8 +31451,56 @@
         <f>J4/1024/1024</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="34">
+        <v>3</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="42">
+        <v>29429974055</v>
+      </c>
+      <c r="P4" s="43">
+        <v>32309165480</v>
+      </c>
+      <c r="Q4" s="43">
+        <f>P4-O4</f>
+        <v>2879191425</v>
+      </c>
+      <c r="R4" s="44">
+        <f>Q4/1024/1024</f>
+        <v>2745.8109140396118</v>
+      </c>
+      <c r="S4" s="43">
+        <v>29429974055</v>
+      </c>
+      <c r="T4" s="43">
+        <v>32309165064</v>
+      </c>
+      <c r="U4" s="43">
+        <f>T4-S4</f>
+        <v>2879191009</v>
+      </c>
+      <c r="V4" s="44">
+        <f>U4/1024/1024</f>
+        <v>2745.8105173110962</v>
+      </c>
+      <c r="W4">
+        <f>R4/V4</f>
+        <v>1.0000001444850302</v>
+      </c>
+      <c r="Y4" s="56">
+        <v>600000353000</v>
+      </c>
+      <c r="Z4" s="57">
+        <v>600000278000</v>
+      </c>
+      <c r="AA4">
+        <f>Z4/Y4</f>
+        <v>0.99999987500007359</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="14">
@@ -31185,8 +31531,52 @@
         <f t="shared" ref="K5:K68" si="3">J5/1024/1024</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="42">
+        <v>29429974734</v>
+      </c>
+      <c r="P5" s="43">
+        <v>32611025459</v>
+      </c>
+      <c r="Q5" s="43">
+        <f t="shared" ref="Q5:Q29" si="4">P5-O5</f>
+        <v>3181050725</v>
+      </c>
+      <c r="R5" s="44">
+        <f t="shared" ref="R5:R29" si="5">Q5/1024/1024</f>
+        <v>3033.686375617981</v>
+      </c>
+      <c r="S5" s="43">
+        <v>29429974734</v>
+      </c>
+      <c r="T5" s="43">
+        <v>32611025115</v>
+      </c>
+      <c r="U5" s="43">
+        <f t="shared" ref="U5:U29" si="6">T5-S5</f>
+        <v>3181050381</v>
+      </c>
+      <c r="V5" s="44">
+        <f t="shared" ref="V5:V29" si="7">U5/1024/1024</f>
+        <v>3033.6860475540161</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W29" si="8">R5/V5</f>
+        <v>1.0000001081403809</v>
+      </c>
+      <c r="Y5" s="56">
+        <v>104220984000</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>105254219000</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA29" si="9">Z5/Y5</f>
+        <v>1.009913886439606</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="14">
@@ -31217,8 +31607,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="42">
+        <v>29429975414</v>
+      </c>
+      <c r="P6" s="43">
+        <v>32743553387</v>
+      </c>
+      <c r="Q6" s="43">
+        <f t="shared" si="4"/>
+        <v>3313577973</v>
+      </c>
+      <c r="R6" s="44">
+        <f t="shared" si="5"/>
+        <v>3160.0742082595825</v>
+      </c>
+      <c r="S6" s="43">
+        <v>29429975414</v>
+      </c>
+      <c r="T6" s="43">
+        <v>32743553387</v>
+      </c>
+      <c r="U6" s="43">
+        <f t="shared" si="6"/>
+        <v>3313577973</v>
+      </c>
+      <c r="V6" s="44">
+        <f t="shared" si="7"/>
+        <v>3160.0742082595825</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="56">
+        <v>584766574000</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>594461660000</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="9"/>
+        <v>1.0165794120783656</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
       <c r="D7" s="14">
@@ -31249,8 +31683,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="42">
+        <v>29429976136</v>
+      </c>
+      <c r="P7" s="55">
+        <v>32628599480</v>
+      </c>
+      <c r="Q7" s="43">
+        <f t="shared" si="4"/>
+        <v>3198623344</v>
+      </c>
+      <c r="R7" s="44">
+        <f t="shared" si="5"/>
+        <v>3050.4449310302734</v>
+      </c>
+      <c r="S7" s="43">
+        <v>29429976136</v>
+      </c>
+      <c r="T7" s="43">
+        <v>32628599392</v>
+      </c>
+      <c r="U7" s="43">
+        <f t="shared" si="6"/>
+        <v>3198623256</v>
+      </c>
+      <c r="V7" s="44">
+        <f t="shared" si="7"/>
+        <v>3050.4448471069336</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>1.0000000275118366</v>
+      </c>
+      <c r="Y7" s="56">
+        <v>104236942000</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>106597639000</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="9"/>
+        <v>1.0226474122773095</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14">
@@ -31281,8 +31759,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="42">
+        <v>29429976816</v>
+      </c>
+      <c r="P8" s="55">
+        <v>32719296032</v>
+      </c>
+      <c r="Q8" s="43">
+        <f t="shared" si="4"/>
+        <v>3289319216</v>
+      </c>
+      <c r="R8" s="44">
+        <f t="shared" si="5"/>
+        <v>3136.9392547607422</v>
+      </c>
+      <c r="S8" s="43">
+        <v>29429976816</v>
+      </c>
+      <c r="T8" s="43">
+        <v>32719296032</v>
+      </c>
+      <c r="U8" s="43">
+        <f t="shared" si="6"/>
+        <v>3289319216</v>
+      </c>
+      <c r="V8" s="44">
+        <f t="shared" si="7"/>
+        <v>3136.9392547607422</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="56">
+        <v>553688266000</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>575287374000</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
+        <v>1.0390095100913697</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -31315,8 +31837,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="42">
+        <v>29429977496</v>
+      </c>
+      <c r="P9" s="55">
+        <v>32641902914</v>
+      </c>
+      <c r="Q9" s="43">
+        <f t="shared" si="4"/>
+        <v>3211925418</v>
+      </c>
+      <c r="R9" s="44">
+        <f t="shared" si="5"/>
+        <v>3063.1307773590088</v>
+      </c>
+      <c r="S9" s="43">
+        <v>29429977496</v>
+      </c>
+      <c r="T9" s="43">
+        <v>32641902914</v>
+      </c>
+      <c r="U9" s="43">
+        <f t="shared" si="6"/>
+        <v>3211925418</v>
+      </c>
+      <c r="V9" s="44">
+        <f t="shared" si="7"/>
+        <v>3063.1307773590088</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" s="56">
+        <v>114054084000</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>114856006000</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="9"/>
+        <v>1.0070310678221746</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
       <c r="D10" s="14">
@@ -31347,8 +31913,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="42">
+        <v>29429978176</v>
+      </c>
+      <c r="P10" s="55">
+        <v>32727723234</v>
+      </c>
+      <c r="Q10" s="43">
+        <f t="shared" si="4"/>
+        <v>3297745058</v>
+      </c>
+      <c r="R10" s="44">
+        <f t="shared" si="5"/>
+        <v>3144.9747638702393</v>
+      </c>
+      <c r="S10" s="43">
+        <v>29429978176</v>
+      </c>
+      <c r="T10" s="43">
+        <v>32727723234</v>
+      </c>
+      <c r="U10" s="43">
+        <f t="shared" si="6"/>
+        <v>3297745058</v>
+      </c>
+      <c r="V10" s="44">
+        <f t="shared" si="7"/>
+        <v>3144.9747638702393</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" s="56">
+        <v>478334515000</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>488755685000</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>1.0217863642977969</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
       <c r="D11" s="14">
@@ -31379,8 +31989,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="42">
+        <v>29429978814</v>
+      </c>
+      <c r="P11" s="55">
+        <v>32673479614</v>
+      </c>
+      <c r="Q11" s="43">
+        <f t="shared" si="4"/>
+        <v>3243500800</v>
+      </c>
+      <c r="R11" s="44">
+        <f t="shared" si="5"/>
+        <v>3093.243408203125</v>
+      </c>
+      <c r="S11" s="43">
+        <v>29429978814</v>
+      </c>
+      <c r="T11" s="43">
+        <v>32673479614</v>
+      </c>
+      <c r="U11" s="43">
+        <f t="shared" si="6"/>
+        <v>3243500800</v>
+      </c>
+      <c r="V11" s="44">
+        <f t="shared" si="7"/>
+        <v>3093.243408203125</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y11" s="56">
+        <v>128562838000</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>129021981000</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="9"/>
+        <v>1.0035713508440129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14">
@@ -31411,8 +32065,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="36"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="42">
+        <v>29429979494</v>
+      </c>
+      <c r="P12" s="55">
+        <v>32698277342</v>
+      </c>
+      <c r="Q12" s="43">
+        <f t="shared" si="4"/>
+        <v>3268297848</v>
+      </c>
+      <c r="R12" s="44">
+        <f t="shared" si="5"/>
+        <v>3116.891716003418</v>
+      </c>
+      <c r="S12" s="43">
+        <v>29429979494</v>
+      </c>
+      <c r="T12" s="43">
+        <v>32698277342</v>
+      </c>
+      <c r="U12" s="43">
+        <f t="shared" si="6"/>
+        <v>3268297848</v>
+      </c>
+      <c r="V12" s="44">
+        <f t="shared" si="7"/>
+        <v>3116.891716003418</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="56">
+        <v>409088558000</v>
+      </c>
+      <c r="Z12" s="57">
+        <v>416426994000</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="9"/>
+        <v>1.0179385022056764</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="12"/>
       <c r="D13" s="14">
@@ -31443,8 +32141,54 @@
         <f t="shared" si="3"/>
         <v>1.190185546875E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M13" s="36"/>
+      <c r="N13" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="47">
+        <v>29414251534</v>
+      </c>
+      <c r="P13" s="48">
+        <v>32597739971</v>
+      </c>
+      <c r="Q13" s="48">
+        <f t="shared" si="4"/>
+        <v>3183488437</v>
+      </c>
+      <c r="R13" s="49">
+        <f t="shared" si="5"/>
+        <v>3036.0111589431763</v>
+      </c>
+      <c r="S13" s="48">
+        <v>29414251534</v>
+      </c>
+      <c r="T13" s="48">
+        <v>32597739723</v>
+      </c>
+      <c r="U13" s="48">
+        <f t="shared" si="6"/>
+        <v>3183488189</v>
+      </c>
+      <c r="V13" s="49">
+        <f t="shared" si="7"/>
+        <v>3036.0109224319458</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="8"/>
+        <v>1.0000000779019695</v>
+      </c>
+      <c r="Y13" s="56">
+        <v>57583892000</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>59079112000</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="9"/>
+        <v>1.0259659420033644</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
         <v>4</v>
@@ -31477,8 +32221,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="42">
+        <v>29414252214</v>
+      </c>
+      <c r="P14" s="55">
+        <v>32568753499</v>
+      </c>
+      <c r="Q14" s="43">
+        <f t="shared" si="4"/>
+        <v>3154501285</v>
+      </c>
+      <c r="R14" s="44">
+        <f t="shared" si="5"/>
+        <v>3008.3668565750122</v>
+      </c>
+      <c r="S14" s="55">
+        <v>29414252214</v>
+      </c>
+      <c r="T14" s="55">
+        <v>32568753499</v>
+      </c>
+      <c r="U14" s="43">
+        <f t="shared" si="6"/>
+        <v>3154501285</v>
+      </c>
+      <c r="V14" s="44">
+        <f t="shared" si="7"/>
+        <v>3008.3668565750122</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="56">
+        <v>55082455000</v>
+      </c>
+      <c r="Z14" s="57">
+        <v>56672701000</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
+        <v>1.0288702818347513</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14">
@@ -31509,8 +32297,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="42">
+        <v>29414252936</v>
+      </c>
+      <c r="P15" s="55">
+        <v>32628864264</v>
+      </c>
+      <c r="Q15" s="43">
+        <f t="shared" si="4"/>
+        <v>3214611328</v>
+      </c>
+      <c r="R15" s="44">
+        <f t="shared" si="5"/>
+        <v>3065.6922607421875</v>
+      </c>
+      <c r="S15" s="55">
+        <v>29414252936</v>
+      </c>
+      <c r="T15" s="55">
+        <v>32628864176</v>
+      </c>
+      <c r="U15" s="43">
+        <f t="shared" si="6"/>
+        <v>3214611240</v>
+      </c>
+      <c r="V15" s="44">
+        <f t="shared" si="7"/>
+        <v>3065.6921768188477</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>1.0000000273750054</v>
+      </c>
+      <c r="Y15" s="56">
+        <v>57703171000</v>
+      </c>
+      <c r="Z15" s="57">
+        <v>58325428000</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="9"/>
+        <v>1.0107837574472294</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14">
@@ -31541,8 +32373,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="42">
+        <v>29414253616</v>
+      </c>
+      <c r="P16" s="55">
+        <v>32566308736</v>
+      </c>
+      <c r="Q16" s="43">
+        <f>P16-O16</f>
+        <v>3152055120</v>
+      </c>
+      <c r="R16" s="44">
+        <f t="shared" si="5"/>
+        <v>3006.0340118408203</v>
+      </c>
+      <c r="S16" s="55">
+        <v>29414253616</v>
+      </c>
+      <c r="T16" s="55">
+        <v>32566308736</v>
+      </c>
+      <c r="U16" s="43">
+        <f t="shared" si="6"/>
+        <v>3152055120</v>
+      </c>
+      <c r="V16" s="44">
+        <f t="shared" si="7"/>
+        <v>3006.0340118408203</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="56">
+        <v>66214870000</v>
+      </c>
+      <c r="Z16" s="57">
+        <v>67310432000</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="9"/>
+        <v>1.016545558422149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="12"/>
       <c r="D17" s="14">
@@ -31573,8 +32449,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="42">
+        <v>29414254296</v>
+      </c>
+      <c r="P17" s="55">
+        <v>32636953506</v>
+      </c>
+      <c r="Q17" s="43">
+        <f>P17-O17</f>
+        <v>3222699210</v>
+      </c>
+      <c r="R17" s="44">
+        <f t="shared" si="5"/>
+        <v>3073.4054660797119</v>
+      </c>
+      <c r="S17" s="55">
+        <v>29414254296</v>
+      </c>
+      <c r="T17" s="55">
+        <v>32636953506</v>
+      </c>
+      <c r="U17" s="43">
+        <f t="shared" si="6"/>
+        <v>3222699210</v>
+      </c>
+      <c r="V17" s="44">
+        <f t="shared" si="7"/>
+        <v>3073.4054660797119</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" s="56">
+        <v>67670369000</v>
+      </c>
+      <c r="Z17" s="57">
+        <v>69561711000</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="9"/>
+        <v>1.0279493377670217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>4</v>
       </c>
@@ -31609,8 +32529,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="42">
+        <v>29414254976</v>
+      </c>
+      <c r="P18" s="55">
+        <v>32582617458</v>
+      </c>
+      <c r="Q18" s="43">
+        <f t="shared" si="4"/>
+        <v>3168362482</v>
+      </c>
+      <c r="R18" s="44">
+        <f t="shared" si="5"/>
+        <v>3021.5859241485596</v>
+      </c>
+      <c r="S18" s="55">
+        <v>29414254976</v>
+      </c>
+      <c r="T18" s="55">
+        <v>32582617458</v>
+      </c>
+      <c r="U18" s="43">
+        <f t="shared" si="6"/>
+        <v>3168362482</v>
+      </c>
+      <c r="V18" s="44">
+        <f t="shared" si="7"/>
+        <v>3021.5859241485596</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="56">
+        <v>76125352000</v>
+      </c>
+      <c r="Z18" s="57">
+        <v>78824813000</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="9"/>
+        <v>1.0354607358662853</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
       <c r="D19" s="14">
@@ -31641,8 +32605,52 @@
         <f t="shared" si="3"/>
         <v>3.0517578125E-5</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="42">
+        <v>29414255614</v>
+      </c>
+      <c r="P19" s="55">
+        <v>32659435918</v>
+      </c>
+      <c r="Q19" s="43">
+        <f t="shared" si="4"/>
+        <v>3245180304</v>
+      </c>
+      <c r="R19" s="44">
+        <f t="shared" si="5"/>
+        <v>3094.8451080322266</v>
+      </c>
+      <c r="S19" s="55">
+        <v>29414255614</v>
+      </c>
+      <c r="T19" s="55">
+        <v>32659435918</v>
+      </c>
+      <c r="U19" s="43">
+        <f t="shared" si="6"/>
+        <v>3245180304</v>
+      </c>
+      <c r="V19" s="44">
+        <f t="shared" si="7"/>
+        <v>3094.8451080322266</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="56">
+        <v>82343604000</v>
+      </c>
+      <c r="Z19" s="57">
+        <v>85599896000</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="9"/>
+        <v>1.0395451722030529</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
       <c r="D20" s="14">
@@ -31673,8 +32681,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="36"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="42">
+        <v>29414256294</v>
+      </c>
+      <c r="P20" s="55">
+        <v>32586668398</v>
+      </c>
+      <c r="Q20" s="43">
+        <f t="shared" si="4"/>
+        <v>3172412104</v>
+      </c>
+      <c r="R20" s="44">
+        <f t="shared" si="5"/>
+        <v>3025.4479446411133</v>
+      </c>
+      <c r="S20" s="55">
+        <v>29414256294</v>
+      </c>
+      <c r="T20" s="55">
+        <v>32586668398</v>
+      </c>
+      <c r="U20" s="43">
+        <f t="shared" si="6"/>
+        <v>3172412104</v>
+      </c>
+      <c r="V20" s="44">
+        <f t="shared" si="7"/>
+        <v>3025.4479446411133</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="56">
+        <v>88599307000</v>
+      </c>
+      <c r="Z20" s="57">
+        <v>92252267000</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="9"/>
+        <v>1.0412301193281341</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
       <c r="D21" s="14">
@@ -31705,8 +32757,52 @@
         <f t="shared" si="3"/>
         <v>2.13623046875E-4</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="36"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="45">
+        <v>29414257222</v>
+      </c>
+      <c r="P21" s="46">
+        <v>32313229407</v>
+      </c>
+      <c r="Q21" s="43">
+        <f t="shared" si="4"/>
+        <v>2898972185</v>
+      </c>
+      <c r="R21" s="44">
+        <f t="shared" si="5"/>
+        <v>2764.6753168106079</v>
+      </c>
+      <c r="S21" s="55">
+        <v>29414257222</v>
+      </c>
+      <c r="T21" s="55">
+        <v>32310911487</v>
+      </c>
+      <c r="U21" s="43">
+        <f t="shared" si="6"/>
+        <v>2896654265</v>
+      </c>
+      <c r="V21" s="44">
+        <f t="shared" si="7"/>
+        <v>2762.4647760391235</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>1.0008002059576138</v>
+      </c>
+      <c r="Y21" s="56">
+        <v>93158278000</v>
+      </c>
+      <c r="Z21" s="57">
+        <v>95830052000</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="9"/>
+        <v>1.0286799418941599</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="12"/>
       <c r="D22" s="14">
@@ -31737,8 +32833,54 @@
         <f t="shared" si="3"/>
         <v>-33.677215576171875</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="36"/>
+      <c r="N22" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="42">
+        <v>29413733446</v>
+      </c>
+      <c r="P22" s="55">
+        <v>32594784171</v>
+      </c>
+      <c r="Q22" s="48">
+        <f t="shared" si="4"/>
+        <v>3181050725</v>
+      </c>
+      <c r="R22" s="49">
+        <f t="shared" si="5"/>
+        <v>3033.686375617981</v>
+      </c>
+      <c r="S22" s="47">
+        <v>29413733446</v>
+      </c>
+      <c r="T22" s="48">
+        <v>32594783827</v>
+      </c>
+      <c r="U22" s="48">
+        <f t="shared" si="6"/>
+        <v>3181050381</v>
+      </c>
+      <c r="V22" s="49">
+        <f t="shared" si="7"/>
+        <v>3033.6860475540161</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>1.0000001081403809</v>
+      </c>
+      <c r="Y22" s="56">
+        <v>55050312000</v>
+      </c>
+      <c r="Z22" s="57">
+        <v>58023491000</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="9"/>
+        <v>1.0540083950841186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
         <v>3</v>
@@ -31771,8 +32913,52 @@
         <f t="shared" si="3"/>
         <v>2.288818359375E-5</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="42">
+        <v>29413734126</v>
+      </c>
+      <c r="P23" s="55">
+        <v>32568235411</v>
+      </c>
+      <c r="Q23" s="43">
+        <f t="shared" si="4"/>
+        <v>3154501285</v>
+      </c>
+      <c r="R23" s="44">
+        <f t="shared" si="5"/>
+        <v>3008.3668565750122</v>
+      </c>
+      <c r="S23" s="42">
+        <v>29413734126</v>
+      </c>
+      <c r="T23" s="55">
+        <v>32568235411</v>
+      </c>
+      <c r="U23" s="43">
+        <f t="shared" si="6"/>
+        <v>3154501285</v>
+      </c>
+      <c r="V23" s="44">
+        <f t="shared" si="7"/>
+        <v>3008.3668565750122</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="56">
+        <v>54816572000</v>
+      </c>
+      <c r="Z23" s="57">
+        <v>57756178000</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="9"/>
+        <v>1.0536262282143436</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
       <c r="D24" s="14">
@@ -31803,8 +32989,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="42">
+        <v>29413734848</v>
+      </c>
+      <c r="P24" s="55">
+        <v>32612358192</v>
+      </c>
+      <c r="Q24" s="43">
+        <f t="shared" si="4"/>
+        <v>3198623344</v>
+      </c>
+      <c r="R24" s="44">
+        <f t="shared" si="5"/>
+        <v>3050.4449310302734</v>
+      </c>
+      <c r="S24" s="42">
+        <v>29413734848</v>
+      </c>
+      <c r="T24" s="55">
+        <v>32612358104</v>
+      </c>
+      <c r="U24" s="43">
+        <f t="shared" si="6"/>
+        <v>3198623256</v>
+      </c>
+      <c r="V24" s="44">
+        <f t="shared" si="7"/>
+        <v>3050.4448471069336</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="8"/>
+        <v>1.0000000275118366</v>
+      </c>
+      <c r="Y24" s="56">
+        <v>54319274000</v>
+      </c>
+      <c r="Z24" s="57">
+        <v>56341950000</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="9"/>
+        <v>1.0372368010662292</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
       <c r="D25" s="14">
@@ -31835,8 +33065,52 @@
         <f t="shared" si="3"/>
         <v>2.13623046875E-4</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="42">
+        <v>29413735528</v>
+      </c>
+      <c r="P25" s="55">
+        <v>32565790648</v>
+      </c>
+      <c r="Q25" s="43">
+        <f t="shared" si="4"/>
+        <v>3152055120</v>
+      </c>
+      <c r="R25" s="44">
+        <f t="shared" si="5"/>
+        <v>3006.0340118408203</v>
+      </c>
+      <c r="S25" s="42">
+        <v>29413735528</v>
+      </c>
+      <c r="T25" s="55">
+        <v>32565790648</v>
+      </c>
+      <c r="U25" s="43">
+        <f t="shared" si="6"/>
+        <v>3152055120</v>
+      </c>
+      <c r="V25" s="44">
+        <f t="shared" si="7"/>
+        <v>3006.0340118408203</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="56">
+        <v>65962536000</v>
+      </c>
+      <c r="Z25" s="57">
+        <v>68657988000</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="9"/>
+        <v>1.0408633773571108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
       <c r="D26" s="14">
@@ -31867,8 +33141,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="36"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="42">
+        <v>29413736208</v>
+      </c>
+      <c r="P26" s="43">
+        <v>32625661626</v>
+      </c>
+      <c r="Q26" s="43">
+        <f t="shared" si="4"/>
+        <v>3211925418</v>
+      </c>
+      <c r="R26" s="44">
+        <f t="shared" si="5"/>
+        <v>3063.1307773590088</v>
+      </c>
+      <c r="S26" s="42">
+        <v>29413736208</v>
+      </c>
+      <c r="T26" s="55">
+        <v>32625661626</v>
+      </c>
+      <c r="U26" s="43">
+        <f t="shared" si="6"/>
+        <v>3211925418</v>
+      </c>
+      <c r="V26" s="44">
+        <f t="shared" si="7"/>
+        <v>3063.1307773590088</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="56">
+        <v>63597725000</v>
+      </c>
+      <c r="Z26" s="57">
+        <v>65480318000</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="9"/>
+        <v>1.0296015777293921</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="12"/>
       <c r="D27" s="14">
@@ -31899,8 +33217,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="42">
+        <v>29413736888</v>
+      </c>
+      <c r="P27" s="43">
+        <v>32582099370</v>
+      </c>
+      <c r="Q27" s="43">
+        <f t="shared" si="4"/>
+        <v>3168362482</v>
+      </c>
+      <c r="R27" s="44">
+        <f t="shared" si="5"/>
+        <v>3021.5859241485596</v>
+      </c>
+      <c r="S27" s="42">
+        <v>29413736888</v>
+      </c>
+      <c r="T27" s="55">
+        <v>32582099370</v>
+      </c>
+      <c r="U27" s="43">
+        <f t="shared" si="6"/>
+        <v>3168362482</v>
+      </c>
+      <c r="V27" s="44">
+        <f t="shared" si="7"/>
+        <v>3021.5859241485596</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="56">
+        <v>75947780000</v>
+      </c>
+      <c r="Z27" s="57">
+        <v>78552671000</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="9"/>
+        <v>1.0342984482232398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="7" t="s">
         <v>4</v>
@@ -31933,8 +33295,52 @@
         <f t="shared" si="3"/>
         <v>3.0517578125E-5</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="36"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="42">
+        <v>29413737526</v>
+      </c>
+      <c r="P28" s="43">
+        <v>32657238326</v>
+      </c>
+      <c r="Q28" s="43">
+        <f t="shared" si="4"/>
+        <v>3243500800</v>
+      </c>
+      <c r="R28" s="44">
+        <f t="shared" si="5"/>
+        <v>3093.243408203125</v>
+      </c>
+      <c r="S28" s="42">
+        <v>29413737526</v>
+      </c>
+      <c r="T28" s="33">
+        <v>32657238326</v>
+      </c>
+      <c r="U28" s="43">
+        <f t="shared" si="6"/>
+        <v>3243500800</v>
+      </c>
+      <c r="V28" s="44">
+        <f t="shared" si="7"/>
+        <v>3093.243408203125</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="56">
+        <v>77705187000</v>
+      </c>
+      <c r="Z28" s="57">
+        <v>80710868000</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="9"/>
+        <v>1.0386805709636862</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
       <c r="D29" s="14">
@@ -31965,8 +33371,52 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M29" s="39"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="45">
+        <v>29413738206</v>
+      </c>
+      <c r="P29" s="46">
+        <v>32586150310</v>
+      </c>
+      <c r="Q29" s="46">
+        <f t="shared" si="4"/>
+        <v>3172412104</v>
+      </c>
+      <c r="R29" s="54">
+        <f t="shared" si="5"/>
+        <v>3025.4479446411133</v>
+      </c>
+      <c r="S29" s="45">
+        <v>29413738206</v>
+      </c>
+      <c r="T29" s="46">
+        <v>32586150310</v>
+      </c>
+      <c r="U29" s="46">
+        <f t="shared" si="6"/>
+        <v>3172412104</v>
+      </c>
+      <c r="V29" s="54">
+        <f t="shared" si="7"/>
+        <v>3025.4479446411133</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="58">
+        <v>89010607000</v>
+      </c>
+      <c r="Z29" s="59">
+        <v>92015335000</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="9"/>
+        <v>1.0337569656164687</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
       <c r="D30" s="14">
@@ -31998,7 +33448,7 @@
         <v>2.13623046875E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="12"/>
       <c r="D31" s="14">
@@ -32030,7 +33480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>5</v>
       </c>
@@ -33246,7 +34696,7 @@
         <v>8959965373</v>
       </c>
       <c r="F69" s="14">
-        <f t="shared" ref="F69:F73" si="4">E69-D69</f>
+        <f t="shared" ref="F69:F73" si="10">E69-D69</f>
         <v>620521549</v>
       </c>
       <c r="G69" s="14">
@@ -33256,15 +34706,15 @@
         <v>8945472525</v>
       </c>
       <c r="I69" s="14">
-        <f t="shared" ref="I69:I73" si="5">H69-G69</f>
+        <f t="shared" ref="I69:I73" si="11">H69-G69</f>
         <v>606028701</v>
       </c>
       <c r="J69">
-        <f t="shared" ref="J69:J73" si="6">F69-I69</f>
+        <f t="shared" ref="J69:J73" si="12">F69-I69</f>
         <v>14492848</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:K73" si="7">J69/1024/1024</f>
+        <f t="shared" ref="K69:K73" si="13">J69/1024/1024</f>
         <v>13.821456909179688</v>
       </c>
     </row>
@@ -33280,7 +34730,7 @@
         <v>8745279296</v>
       </c>
       <c r="F70" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>405834468</v>
       </c>
       <c r="G70" s="14">
@@ -33290,15 +34740,15 @@
         <v>8745279296</v>
       </c>
       <c r="I70" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>405834468</v>
       </c>
       <c r="J70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -33312,7 +34762,7 @@
         <v>8745227880</v>
       </c>
       <c r="F71" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>405782500</v>
       </c>
       <c r="G71" s="14">
@@ -33322,15 +34772,15 @@
         <v>8745227880</v>
       </c>
       <c r="I71" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>405782500</v>
       </c>
       <c r="J71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -33344,7 +34794,7 @@
         <v>8944950854</v>
       </c>
       <c r="F72" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>605505404</v>
       </c>
       <c r="G72" s="14">
@@ -33354,15 +34804,15 @@
         <v>8944950854</v>
       </c>
       <c r="I72" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>605505404</v>
       </c>
       <c r="J72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -33376,7 +34826,7 @@
         <v>8945476862</v>
       </c>
       <c r="F73" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>606030860</v>
       </c>
       <c r="G73" s="14">
@@ -33386,20 +34836,26 @@
         <v>8945476862</v>
       </c>
       <c r="I73" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>606030860</v>
       </c>
       <c r="J73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="28">
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="M4:M29"/>
+    <mergeCell ref="N4:N12"/>
+    <mergeCell ref="N13:N21"/>
+    <mergeCell ref="N22:N29"/>
     <mergeCell ref="B46:B59"/>
     <mergeCell ref="C46:C50"/>
     <mergeCell ref="C51:C55"/>

--- a/bfs-dfs.xlsx
+++ b/bfs-dfs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian/CLionProjects/Ring-RPQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BB7B848E-A8A2-C144-935B-76C6C64F2BA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FA3237D3-2114-9244-AF1A-5F06D68DD47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15340" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="21">
   <si>
     <t>left</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>MB</t>
+  </si>
+  <si>
+    <t>BFS/DFS</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,6 +1165,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,6 +1204,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1567,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P773"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="M44" sqref="M44:M45"/>
     </sheetView>
   </sheetViews>
@@ -31326,8 +31331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31385,35 +31390,41 @@
       <c r="I3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="60" t="s">
+      <c r="W3" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="61" t="s">
+      <c r="Z3" s="63" t="s">
         <v>13</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
@@ -31451,37 +31462,37 @@
         <f>J4/1024/1024</f>
         <v>0</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="35">
         <v>3</v>
       </c>
-      <c r="N4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="42">
+      <c r="N4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="43">
         <v>29429974055</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="44">
         <v>32309165480</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="44">
         <f>P4-O4</f>
         <v>2879191425</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="45">
         <f>Q4/1024/1024</f>
         <v>2745.8109140396118</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="44">
         <v>29429974055</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="44">
         <v>32309165064</v>
       </c>
-      <c r="U4" s="43">
+      <c r="U4" s="44">
         <f>T4-S4</f>
         <v>2879191009</v>
       </c>
-      <c r="V4" s="44">
+      <c r="V4" s="45">
         <f>U4/1024/1024</f>
         <v>2745.8105173110962</v>
       </c>
@@ -31489,10 +31500,10 @@
         <f>R4/V4</f>
         <v>1.0000001444850302</v>
       </c>
-      <c r="Y4" s="56">
+      <c r="Y4" s="58">
         <v>600000353000</v>
       </c>
-      <c r="Z4" s="57">
+      <c r="Z4" s="59">
         <v>600000278000</v>
       </c>
       <c r="AA4">
@@ -31531,33 +31542,33 @@
         <f t="shared" ref="K5:K68" si="3">J5/1024/1024</f>
         <v>0</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="42">
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="43">
         <v>29429974734</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="44">
         <v>32611025459</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="44">
         <f t="shared" ref="Q5:Q29" si="4">P5-O5</f>
         <v>3181050725</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="45">
         <f t="shared" ref="R5:R29" si="5">Q5/1024/1024</f>
         <v>3033.686375617981</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="44">
         <v>29429974734</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="44">
         <v>32611025115</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="44">
         <f t="shared" ref="U5:U29" si="6">T5-S5</f>
         <v>3181050381</v>
       </c>
-      <c r="V5" s="44">
+      <c r="V5" s="45">
         <f t="shared" ref="V5:V29" si="7">U5/1024/1024</f>
         <v>3033.6860475540161</v>
       </c>
@@ -31565,10 +31576,10 @@
         <f t="shared" ref="W5:W29" si="8">R5/V5</f>
         <v>1.0000001081403809</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Y5" s="58">
         <v>104220984000</v>
       </c>
-      <c r="Z5" s="57">
+      <c r="Z5" s="59">
         <v>105254219000</v>
       </c>
       <c r="AA5">
@@ -31607,33 +31618,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="42">
+      <c r="M6" s="37"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="43">
         <v>29429975414</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="44">
         <v>32743553387</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="44">
         <f t="shared" si="4"/>
         <v>3313577973</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="45">
         <f t="shared" si="5"/>
         <v>3160.0742082595825</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="44">
         <v>29429975414</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="44">
         <v>32743553387</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="44">
         <f t="shared" si="6"/>
         <v>3313577973</v>
       </c>
-      <c r="V6" s="44">
+      <c r="V6" s="45">
         <f t="shared" si="7"/>
         <v>3160.0742082595825</v>
       </c>
@@ -31641,10 +31652,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y6" s="56">
+      <c r="Y6" s="58">
         <v>584766574000</v>
       </c>
-      <c r="Z6" s="57">
+      <c r="Z6" s="59">
         <v>594461660000</v>
       </c>
       <c r="AA6">
@@ -31683,33 +31694,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="42">
+      <c r="M7" s="37"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="43">
         <v>29429976136</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="56">
         <v>32628599480</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="44">
         <f t="shared" si="4"/>
         <v>3198623344</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="45">
         <f t="shared" si="5"/>
         <v>3050.4449310302734</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="44">
         <v>29429976136</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="44">
         <v>32628599392</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="44">
         <f t="shared" si="6"/>
         <v>3198623256</v>
       </c>
-      <c r="V7" s="44">
+      <c r="V7" s="45">
         <f t="shared" si="7"/>
         <v>3050.4448471069336</v>
       </c>
@@ -31717,10 +31728,10 @@
         <f t="shared" si="8"/>
         <v>1.0000000275118366</v>
       </c>
-      <c r="Y7" s="56">
+      <c r="Y7" s="58">
         <v>104236942000</v>
       </c>
-      <c r="Z7" s="57">
+      <c r="Z7" s="59">
         <v>106597639000</v>
       </c>
       <c r="AA7">
@@ -31759,33 +31770,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="42">
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="43">
         <v>29429976816</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="56">
         <v>32719296032</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="44">
         <f t="shared" si="4"/>
         <v>3289319216</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="45">
         <f t="shared" si="5"/>
         <v>3136.9392547607422</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="44">
         <v>29429976816</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="44">
         <v>32719296032</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="44">
         <f t="shared" si="6"/>
         <v>3289319216</v>
       </c>
-      <c r="V8" s="44">
+      <c r="V8" s="45">
         <f t="shared" si="7"/>
         <v>3136.9392547607422</v>
       </c>
@@ -31793,10 +31804,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y8" s="56">
+      <c r="Y8" s="58">
         <v>553688266000</v>
       </c>
-      <c r="Z8" s="57">
+      <c r="Z8" s="59">
         <v>575287374000</v>
       </c>
       <c r="AA8">
@@ -31837,33 +31848,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="42">
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="43">
         <v>29429977496</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="56">
         <v>32641902914</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="44">
         <f t="shared" si="4"/>
         <v>3211925418</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="45">
         <f t="shared" si="5"/>
         <v>3063.1307773590088</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="44">
         <v>29429977496</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="44">
         <v>32641902914</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="44">
         <f t="shared" si="6"/>
         <v>3211925418</v>
       </c>
-      <c r="V9" s="44">
+      <c r="V9" s="45">
         <f t="shared" si="7"/>
         <v>3063.1307773590088</v>
       </c>
@@ -31871,10 +31882,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y9" s="56">
+      <c r="Y9" s="58">
         <v>114054084000</v>
       </c>
-      <c r="Z9" s="57">
+      <c r="Z9" s="59">
         <v>114856006000</v>
       </c>
       <c r="AA9">
@@ -31913,33 +31924,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="42">
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="43">
         <v>29429978176</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="56">
         <v>32727723234</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="44">
         <f t="shared" si="4"/>
         <v>3297745058</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="45">
         <f t="shared" si="5"/>
         <v>3144.9747638702393</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="44">
         <v>29429978176</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="44">
         <v>32727723234</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="44">
         <f t="shared" si="6"/>
         <v>3297745058</v>
       </c>
-      <c r="V10" s="44">
+      <c r="V10" s="45">
         <f t="shared" si="7"/>
         <v>3144.9747638702393</v>
       </c>
@@ -31947,10 +31958,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="56">
+      <c r="Y10" s="58">
         <v>478334515000</v>
       </c>
-      <c r="Z10" s="57">
+      <c r="Z10" s="59">
         <v>488755685000</v>
       </c>
       <c r="AA10">
@@ -31989,33 +32000,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="42">
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="43">
         <v>29429978814</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="56">
         <v>32673479614</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="44">
         <f t="shared" si="4"/>
         <v>3243500800</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="45">
         <f t="shared" si="5"/>
         <v>3093.243408203125</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="44">
         <v>29429978814</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="44">
         <v>32673479614</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="44">
         <f t="shared" si="6"/>
         <v>3243500800</v>
       </c>
-      <c r="V11" s="44">
+      <c r="V11" s="45">
         <f t="shared" si="7"/>
         <v>3093.243408203125</v>
       </c>
@@ -32023,10 +32034,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="56">
+      <c r="Y11" s="58">
         <v>128562838000</v>
       </c>
-      <c r="Z11" s="57">
+      <c r="Z11" s="59">
         <v>129021981000</v>
       </c>
       <c r="AA11">
@@ -32065,33 +32076,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="42">
+      <c r="M12" s="37"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="43">
         <v>29429979494</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="56">
         <v>32698277342</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="44">
         <f t="shared" si="4"/>
         <v>3268297848</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="45">
         <f t="shared" si="5"/>
         <v>3116.891716003418</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="44">
         <v>29429979494</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="44">
         <v>32698277342</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="44">
         <f t="shared" si="6"/>
         <v>3268297848</v>
       </c>
-      <c r="V12" s="44">
+      <c r="V12" s="45">
         <f t="shared" si="7"/>
         <v>3116.891716003418</v>
       </c>
@@ -32099,10 +32110,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="56">
+      <c r="Y12" s="58">
         <v>409088558000</v>
       </c>
-      <c r="Z12" s="57">
+      <c r="Z12" s="59">
         <v>416426994000</v>
       </c>
       <c r="AA12">
@@ -32141,35 +32152,35 @@
         <f t="shared" si="3"/>
         <v>1.190185546875E-3</v>
       </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="40" t="s">
+      <c r="M13" s="37"/>
+      <c r="N13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="48">
         <v>29414251534</v>
       </c>
-      <c r="P13" s="48">
+      <c r="P13" s="49">
         <v>32597739971</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="49">
         <f t="shared" si="4"/>
         <v>3183488437</v>
       </c>
-      <c r="R13" s="49">
+      <c r="R13" s="50">
         <f t="shared" si="5"/>
         <v>3036.0111589431763</v>
       </c>
-      <c r="S13" s="48">
+      <c r="S13" s="49">
         <v>29414251534</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="49">
         <v>32597739723</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="49">
         <f t="shared" si="6"/>
         <v>3183488189</v>
       </c>
-      <c r="V13" s="49">
+      <c r="V13" s="50">
         <f t="shared" si="7"/>
         <v>3036.0109224319458</v>
       </c>
@@ -32177,10 +32188,10 @@
         <f t="shared" si="8"/>
         <v>1.0000000779019695</v>
       </c>
-      <c r="Y13" s="56">
+      <c r="Y13" s="58">
         <v>57583892000</v>
       </c>
-      <c r="Z13" s="57">
+      <c r="Z13" s="59">
         <v>59079112000</v>
       </c>
       <c r="AA13">
@@ -32221,33 +32232,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="42">
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="43">
         <v>29414252214</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="56">
         <v>32568753499</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="44">
         <f t="shared" si="4"/>
         <v>3154501285</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="45">
         <f t="shared" si="5"/>
         <v>3008.3668565750122</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="56">
         <v>29414252214</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="56">
         <v>32568753499</v>
       </c>
-      <c r="U14" s="43">
+      <c r="U14" s="44">
         <f t="shared" si="6"/>
         <v>3154501285</v>
       </c>
-      <c r="V14" s="44">
+      <c r="V14" s="45">
         <f t="shared" si="7"/>
         <v>3008.3668565750122</v>
       </c>
@@ -32255,10 +32266,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="56">
+      <c r="Y14" s="58">
         <v>55082455000</v>
       </c>
-      <c r="Z14" s="57">
+      <c r="Z14" s="59">
         <v>56672701000</v>
       </c>
       <c r="AA14">
@@ -32297,33 +32308,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="42">
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="43">
         <v>29414252936</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="56">
         <v>32628864264</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="44">
         <f t="shared" si="4"/>
         <v>3214611328</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="45">
         <f t="shared" si="5"/>
         <v>3065.6922607421875</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="56">
         <v>29414252936</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="56">
         <v>32628864176</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="44">
         <f t="shared" si="6"/>
         <v>3214611240</v>
       </c>
-      <c r="V15" s="44">
+      <c r="V15" s="45">
         <f t="shared" si="7"/>
         <v>3065.6921768188477</v>
       </c>
@@ -32331,10 +32342,10 @@
         <f t="shared" si="8"/>
         <v>1.0000000273750054</v>
       </c>
-      <c r="Y15" s="56">
+      <c r="Y15" s="58">
         <v>57703171000</v>
       </c>
-      <c r="Z15" s="57">
+      <c r="Z15" s="59">
         <v>58325428000</v>
       </c>
       <c r="AA15">
@@ -32373,33 +32384,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="42">
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="43">
         <v>29414253616</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="56">
         <v>32566308736</v>
       </c>
-      <c r="Q16" s="43">
+      <c r="Q16" s="44">
         <f>P16-O16</f>
         <v>3152055120</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="45">
         <f t="shared" si="5"/>
         <v>3006.0340118408203</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="56">
         <v>29414253616</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="56">
         <v>32566308736</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="44">
         <f t="shared" si="6"/>
         <v>3152055120</v>
       </c>
-      <c r="V16" s="44">
+      <c r="V16" s="45">
         <f t="shared" si="7"/>
         <v>3006.0340118408203</v>
       </c>
@@ -32407,10 +32418,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="56">
+      <c r="Y16" s="58">
         <v>66214870000</v>
       </c>
-      <c r="Z16" s="57">
+      <c r="Z16" s="59">
         <v>67310432000</v>
       </c>
       <c r="AA16">
@@ -32449,33 +32460,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="42">
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="43">
         <v>29414254296</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="56">
         <v>32636953506</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="44">
         <f>P17-O17</f>
         <v>3222699210</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="45">
         <f t="shared" si="5"/>
         <v>3073.4054660797119</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="56">
         <v>29414254296</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="56">
         <v>32636953506</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="44">
         <f t="shared" si="6"/>
         <v>3222699210</v>
       </c>
-      <c r="V17" s="44">
+      <c r="V17" s="45">
         <f t="shared" si="7"/>
         <v>3073.4054660797119</v>
       </c>
@@ -32483,10 +32494,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="56">
+      <c r="Y17" s="58">
         <v>67670369000</v>
       </c>
-      <c r="Z17" s="57">
+      <c r="Z17" s="59">
         <v>69561711000</v>
       </c>
       <c r="AA17">
@@ -32529,33 +32540,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="42">
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="43">
         <v>29414254976</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="56">
         <v>32582617458</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="44">
         <f t="shared" si="4"/>
         <v>3168362482</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="45">
         <f t="shared" si="5"/>
         <v>3021.5859241485596</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="56">
         <v>29414254976</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="56">
         <v>32582617458</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="44">
         <f t="shared" si="6"/>
         <v>3168362482</v>
       </c>
-      <c r="V18" s="44">
+      <c r="V18" s="45">
         <f t="shared" si="7"/>
         <v>3021.5859241485596</v>
       </c>
@@ -32563,10 +32574,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="56">
+      <c r="Y18" s="58">
         <v>76125352000</v>
       </c>
-      <c r="Z18" s="57">
+      <c r="Z18" s="59">
         <v>78824813000</v>
       </c>
       <c r="AA18">
@@ -32605,33 +32616,33 @@
         <f t="shared" si="3"/>
         <v>3.0517578125E-5</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="42">
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="43">
         <v>29414255614</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="56">
         <v>32659435918</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="44">
         <f t="shared" si="4"/>
         <v>3245180304</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="45">
         <f t="shared" si="5"/>
         <v>3094.8451080322266</v>
       </c>
-      <c r="S19" s="55">
+      <c r="S19" s="56">
         <v>29414255614</v>
       </c>
-      <c r="T19" s="55">
+      <c r="T19" s="56">
         <v>32659435918</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="44">
         <f t="shared" si="6"/>
         <v>3245180304</v>
       </c>
-      <c r="V19" s="44">
+      <c r="V19" s="45">
         <f t="shared" si="7"/>
         <v>3094.8451080322266</v>
       </c>
@@ -32639,10 +32650,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="56">
+      <c r="Y19" s="58">
         <v>82343604000</v>
       </c>
-      <c r="Z19" s="57">
+      <c r="Z19" s="59">
         <v>85599896000</v>
       </c>
       <c r="AA19">
@@ -32681,33 +32692,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="42">
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="43">
         <v>29414256294</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="56">
         <v>32586668398</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="44">
         <f t="shared" si="4"/>
         <v>3172412104</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="45">
         <f t="shared" si="5"/>
         <v>3025.4479446411133</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="56">
         <v>29414256294</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="56">
         <v>32586668398</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="44">
         <f t="shared" si="6"/>
         <v>3172412104</v>
       </c>
-      <c r="V20" s="44">
+      <c r="V20" s="45">
         <f t="shared" si="7"/>
         <v>3025.4479446411133</v>
       </c>
@@ -32715,10 +32726,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="56">
+      <c r="Y20" s="58">
         <v>88599307000</v>
       </c>
-      <c r="Z20" s="57">
+      <c r="Z20" s="59">
         <v>92252267000</v>
       </c>
       <c r="AA20">
@@ -32757,33 +32768,33 @@
         <f t="shared" si="3"/>
         <v>2.13623046875E-4</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="45">
+      <c r="M21" s="37"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="46">
         <v>29414257222</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="47">
         <v>32313229407</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="44">
         <f t="shared" si="4"/>
         <v>2898972185</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="45">
         <f t="shared" si="5"/>
         <v>2764.6753168106079</v>
       </c>
-      <c r="S21" s="55">
+      <c r="S21" s="56">
         <v>29414257222</v>
       </c>
-      <c r="T21" s="55">
+      <c r="T21" s="56">
         <v>32310911487</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="44">
         <f t="shared" si="6"/>
         <v>2896654265</v>
       </c>
-      <c r="V21" s="44">
+      <c r="V21" s="45">
         <f t="shared" si="7"/>
         <v>2762.4647760391235</v>
       </c>
@@ -32791,10 +32802,10 @@
         <f t="shared" si="8"/>
         <v>1.0008002059576138</v>
       </c>
-      <c r="Y21" s="56">
+      <c r="Y21" s="58">
         <v>93158278000</v>
       </c>
-      <c r="Z21" s="57">
+      <c r="Z21" s="59">
         <v>95830052000</v>
       </c>
       <c r="AA21">
@@ -32833,35 +32844,35 @@
         <f t="shared" si="3"/>
         <v>-33.677215576171875</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="40" t="s">
+      <c r="M22" s="37"/>
+      <c r="N22" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="43">
         <v>29413733446</v>
       </c>
-      <c r="P22" s="55">
+      <c r="P22" s="56">
         <v>32594784171</v>
       </c>
-      <c r="Q22" s="48">
+      <c r="Q22" s="49">
         <f t="shared" si="4"/>
         <v>3181050725</v>
       </c>
-      <c r="R22" s="49">
+      <c r="R22" s="50">
         <f t="shared" si="5"/>
         <v>3033.686375617981</v>
       </c>
-      <c r="S22" s="47">
+      <c r="S22" s="48">
         <v>29413733446</v>
       </c>
-      <c r="T22" s="48">
+      <c r="T22" s="49">
         <v>32594783827</v>
       </c>
-      <c r="U22" s="48">
+      <c r="U22" s="49">
         <f t="shared" si="6"/>
         <v>3181050381</v>
       </c>
-      <c r="V22" s="49">
+      <c r="V22" s="50">
         <f t="shared" si="7"/>
         <v>3033.6860475540161</v>
       </c>
@@ -32869,10 +32880,10 @@
         <f t="shared" si="8"/>
         <v>1.0000001081403809</v>
       </c>
-      <c r="Y22" s="56">
+      <c r="Y22" s="58">
         <v>55050312000</v>
       </c>
-      <c r="Z22" s="57">
+      <c r="Z22" s="59">
         <v>58023491000</v>
       </c>
       <c r="AA22">
@@ -32913,33 +32924,33 @@
         <f t="shared" si="3"/>
         <v>2.288818359375E-5</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="42">
+      <c r="M23" s="37"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="43">
         <v>29413734126</v>
       </c>
-      <c r="P23" s="55">
+      <c r="P23" s="56">
         <v>32568235411</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="44">
         <f t="shared" si="4"/>
         <v>3154501285</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="45">
         <f t="shared" si="5"/>
         <v>3008.3668565750122</v>
       </c>
-      <c r="S23" s="42">
+      <c r="S23" s="43">
         <v>29413734126</v>
       </c>
-      <c r="T23" s="55">
+      <c r="T23" s="56">
         <v>32568235411</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="44">
         <f t="shared" si="6"/>
         <v>3154501285</v>
       </c>
-      <c r="V23" s="44">
+      <c r="V23" s="45">
         <f t="shared" si="7"/>
         <v>3008.3668565750122</v>
       </c>
@@ -32947,10 +32958,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y23" s="56">
+      <c r="Y23" s="58">
         <v>54816572000</v>
       </c>
-      <c r="Z23" s="57">
+      <c r="Z23" s="59">
         <v>57756178000</v>
       </c>
       <c r="AA23">
@@ -32989,33 +33000,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="42">
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="43">
         <v>29413734848</v>
       </c>
-      <c r="P24" s="55">
+      <c r="P24" s="56">
         <v>32612358192</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q24" s="44">
         <f t="shared" si="4"/>
         <v>3198623344</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="45">
         <f t="shared" si="5"/>
         <v>3050.4449310302734</v>
       </c>
-      <c r="S24" s="42">
+      <c r="S24" s="43">
         <v>29413734848</v>
       </c>
-      <c r="T24" s="55">
+      <c r="T24" s="56">
         <v>32612358104</v>
       </c>
-      <c r="U24" s="43">
+      <c r="U24" s="44">
         <f t="shared" si="6"/>
         <v>3198623256</v>
       </c>
-      <c r="V24" s="44">
+      <c r="V24" s="45">
         <f t="shared" si="7"/>
         <v>3050.4448471069336</v>
       </c>
@@ -33023,10 +33034,10 @@
         <f t="shared" si="8"/>
         <v>1.0000000275118366</v>
       </c>
-      <c r="Y24" s="56">
+      <c r="Y24" s="58">
         <v>54319274000</v>
       </c>
-      <c r="Z24" s="57">
+      <c r="Z24" s="59">
         <v>56341950000</v>
       </c>
       <c r="AA24">
@@ -33065,33 +33076,33 @@
         <f t="shared" si="3"/>
         <v>2.13623046875E-4</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="42">
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="43">
         <v>29413735528</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="56">
         <v>32565790648</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="44">
         <f t="shared" si="4"/>
         <v>3152055120</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="45">
         <f t="shared" si="5"/>
         <v>3006.0340118408203</v>
       </c>
-      <c r="S25" s="42">
+      <c r="S25" s="43">
         <v>29413735528</v>
       </c>
-      <c r="T25" s="55">
+      <c r="T25" s="56">
         <v>32565790648</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="44">
         <f t="shared" si="6"/>
         <v>3152055120</v>
       </c>
-      <c r="V25" s="44">
+      <c r="V25" s="45">
         <f t="shared" si="7"/>
         <v>3006.0340118408203</v>
       </c>
@@ -33099,10 +33110,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="56">
+      <c r="Y25" s="58">
         <v>65962536000</v>
       </c>
-      <c r="Z25" s="57">
+      <c r="Z25" s="59">
         <v>68657988000</v>
       </c>
       <c r="AA25">
@@ -33141,33 +33152,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="42">
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="43">
         <v>29413736208</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="44">
         <v>32625661626</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q26" s="44">
         <f t="shared" si="4"/>
         <v>3211925418</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="45">
         <f t="shared" si="5"/>
         <v>3063.1307773590088</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="43">
         <v>29413736208</v>
       </c>
-      <c r="T26" s="55">
+      <c r="T26" s="56">
         <v>32625661626</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="44">
         <f t="shared" si="6"/>
         <v>3211925418</v>
       </c>
-      <c r="V26" s="44">
+      <c r="V26" s="45">
         <f t="shared" si="7"/>
         <v>3063.1307773590088</v>
       </c>
@@ -33175,10 +33186,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y26" s="56">
+      <c r="Y26" s="58">
         <v>63597725000</v>
       </c>
-      <c r="Z26" s="57">
+      <c r="Z26" s="59">
         <v>65480318000</v>
       </c>
       <c r="AA26">
@@ -33217,33 +33228,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="42">
+      <c r="M27" s="37"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="43">
         <v>29413736888</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="44">
         <v>32582099370</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="44">
         <f t="shared" si="4"/>
         <v>3168362482</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="45">
         <f t="shared" si="5"/>
         <v>3021.5859241485596</v>
       </c>
-      <c r="S27" s="42">
+      <c r="S27" s="43">
         <v>29413736888</v>
       </c>
-      <c r="T27" s="55">
+      <c r="T27" s="56">
         <v>32582099370</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="44">
         <f t="shared" si="6"/>
         <v>3168362482</v>
       </c>
-      <c r="V27" s="44">
+      <c r="V27" s="45">
         <f t="shared" si="7"/>
         <v>3021.5859241485596</v>
       </c>
@@ -33251,10 +33262,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y27" s="56">
+      <c r="Y27" s="58">
         <v>75947780000</v>
       </c>
-      <c r="Z27" s="57">
+      <c r="Z27" s="59">
         <v>78552671000</v>
       </c>
       <c r="AA27">
@@ -33295,33 +33306,33 @@
         <f t="shared" si="3"/>
         <v>3.0517578125E-5</v>
       </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="42">
+      <c r="M28" s="37"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="43">
         <v>29413737526</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="44">
         <v>32657238326</v>
       </c>
-      <c r="Q28" s="43">
+      <c r="Q28" s="44">
         <f t="shared" si="4"/>
         <v>3243500800</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="45">
         <f t="shared" si="5"/>
         <v>3093.243408203125</v>
       </c>
-      <c r="S28" s="42">
+      <c r="S28" s="43">
         <v>29413737526</v>
       </c>
       <c r="T28" s="33">
         <v>32657238326</v>
       </c>
-      <c r="U28" s="43">
+      <c r="U28" s="44">
         <f t="shared" si="6"/>
         <v>3243500800</v>
       </c>
-      <c r="V28" s="44">
+      <c r="V28" s="45">
         <f t="shared" si="7"/>
         <v>3093.243408203125</v>
       </c>
@@ -33329,10 +33340,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="56">
+      <c r="Y28" s="58">
         <v>77705187000</v>
       </c>
-      <c r="Z28" s="57">
+      <c r="Z28" s="59">
         <v>80710868000</v>
       </c>
       <c r="AA28">
@@ -33371,33 +33382,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="45">
+      <c r="M29" s="40"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="46">
         <v>29413738206</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="47">
         <v>32586150310</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="47">
         <f t="shared" si="4"/>
         <v>3172412104</v>
       </c>
-      <c r="R29" s="54">
+      <c r="R29" s="55">
         <f t="shared" si="5"/>
         <v>3025.4479446411133</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="46">
         <v>29413738206</v>
       </c>
-      <c r="T29" s="46">
+      <c r="T29" s="47">
         <v>32586150310</v>
       </c>
-      <c r="U29" s="46">
+      <c r="U29" s="47">
         <f t="shared" si="6"/>
         <v>3172412104</v>
       </c>
-      <c r="V29" s="54">
+      <c r="V29" s="55">
         <f t="shared" si="7"/>
         <v>3025.4479446411133</v>
       </c>
@@ -33405,10 +33416,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y29" s="58">
+      <c r="Y29" s="60">
         <v>89010607000</v>
       </c>
-      <c r="Z29" s="59">
+      <c r="Z29" s="61">
         <v>92015335000</v>
       </c>
       <c r="AA29">
